--- a/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,65%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 7,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 10,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 7,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,57; 13,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,61; 13,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 18,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,06; 9,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,55; 32,47</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,83%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 6,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 12,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,55; 3,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,82; -0,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; 9,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,43; 19,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,6; 4,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,5; -1,74</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,91%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 6,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 9,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 4,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,64; 3,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,62; 9,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 12,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,74; 5,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,4; 5,36</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,24; 4,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,17; 14,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 6,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 20,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,73; 6,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,78; 22,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,93; 8,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 44,3</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 11,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 14,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 7,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 8,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 16,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 22,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 9,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 13,32</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,93%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 5,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 7,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,72; 11,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 5,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,26; 7,27</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 9,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,39; 14,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,94; 8,19</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 4,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,12; 8,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 4,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 4,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 5,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,89; 12,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 5,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 8,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>6,48%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 13,75</t>
+          <t>-8,06; 14,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 32,47</t>
+          <t>-15,69; 35,76</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,44</t>
+          <t>-15,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-14,83%</t>
+          <t>-24,1%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,82; -0,96</t>
+          <t>-32,8; -4,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,5; -1,74</t>
+          <t>-50,13; -8,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,91%</t>
+          <t>-3,5%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 3,25</t>
+          <t>-7,42; 3,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 5,36</t>
+          <t>-11,29; 6,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>37,58%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 20,36</t>
+          <t>-2,61; 42,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 44,3</t>
+          <t>-4,07; 211,33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 8,9</t>
+          <t>-0,55; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 13,32</t>
+          <t>-0,56; 14,19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>0,14%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,43</t>
+          <t>-5,48; 7,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 7,25</t>
+          <t>-3,72; 9,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,35</t>
+          <t>3,65; 14,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 5,51</t>
+          <t>-5,26; 4,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 7,27</t>
+          <t>-6,69; 9,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 9,84</t>
+          <t>-4,75; 14,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 14,26</t>
+          <t>4,39; 19,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 8,19</t>
+          <t>-7,58; 7,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>4,67%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-5,88; 8,12</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 9,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 9,44</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 8,68</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 10,57</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-6,26; 12,6</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 11,4</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 12,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6,42</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2,65%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-0,48; 4,0</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>4,12; 8,67</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>1,06; 4,74</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 4,97</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 16,14</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-0,68; 5,77</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>5,89; 12,86</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>1,28; 5,88</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 8,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 33,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 7,8</t>
+          <t>-4,3; 7,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 10,67</t>
+          <t>-1,57; 11,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 7,26</t>
+          <t>-3,97; 7,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 14,12</t>
+          <t>-8,61; 13,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 13,42</t>
+          <t>-6,8; 13,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 18,36</t>
+          <t>-2,25; 19,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 9,56</t>
+          <t>-4,87; 9,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 35,76</t>
+          <t>-16,89; 34,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 6,37</t>
+          <t>-3,71; 6,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 12,0</t>
+          <t>2,12; 12,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 3,46</t>
+          <t>-4,93; 4,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,8; -4,66</t>
+          <t>-33,7; -4,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 9,51</t>
+          <t>-5,27; 9,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 19,01</t>
+          <t>3,02; 19,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,34</t>
+          <t>-5,88; 5,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,13; -8,11</t>
+          <t>-52,54; -7,87</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 6,28</t>
+          <t>-4,38; 5,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 9,02</t>
+          <t>-0,61; 9,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 4,49</t>
+          <t>-3,55; 4,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 3,6</t>
+          <t>-7,2; 3,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 9,48</t>
+          <t>-6,03; 8,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 12,94</t>
+          <t>-0,79; 13,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 5,51</t>
+          <t>-4,19; 5,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 6,02</t>
+          <t>-11,06; 6,19</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 4,54</t>
+          <t>-7,07; 3,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,17; 14,78</t>
+          <t>4,32; 14,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 6,87</t>
+          <t>-1,25; 7,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 42,74</t>
+          <t>-2,77; 45,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 6,45</t>
+          <t>-9,46; 5,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 22,27</t>
+          <t>5,82; 21,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 8,67</t>
+          <t>-1,48; 8,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 211,33</t>
+          <t>-4,44; 210,62</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 11,53</t>
+          <t>-0,83; 11,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 14,37</t>
+          <t>1,38; 13,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 7,85</t>
+          <t>-1,33; 8,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 9,2</t>
+          <t>-0,04; 9,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 16,72</t>
+          <t>-1,31; 16,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 22,81</t>
+          <t>1,97; 21,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 9,83</t>
+          <t>-1,54; 10,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 14,19</t>
+          <t>-0,03; 13,77</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 7,15</t>
+          <t>-5,6; 7,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 9,99</t>
+          <t>-3,78; 9,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,65; 14,95</t>
+          <t>4,58; 15,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 4,95</t>
+          <t>-4,99; 5,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 9,77</t>
+          <t>-6,96; 9,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 14,36</t>
+          <t>-4,84; 14,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,39; 19,48</t>
+          <t>5,5; 20,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 7,8</t>
+          <t>-7,2; 8,76</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 8,12</t>
+          <t>-6,21; 7,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 9,0</t>
+          <t>-4,41; 9,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 9,44</t>
+          <t>-0,81; 9,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,68</t>
+          <t>-2,15; 8,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 10,57</t>
+          <t>-7,38; 10,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 12,6</t>
+          <t>-5,4; 12,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 11,4</t>
+          <t>-0,9; 11,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 12,54</t>
+          <t>-2,82; 12,0</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,0</t>
+          <t>-0,28; 4,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,67</t>
+          <t>4,08; 8,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,74</t>
+          <t>0,79; 4,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 16,14</t>
+          <t>-1,82; 17,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,77</t>
+          <t>-0,38; 5,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,86</t>
+          <t>5,85; 12,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,88</t>
+          <t>0,98; 5,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 33,53</t>
+          <t>-2,89; 39,57</t>
         </is>
       </c>
     </row>
